--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube8\practice-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC58FE-DBC2-4D15-917F-202AAC444D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EE3B7B-EBF8-46C1-A462-A7522BB95D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="6120" windowWidth="21600" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="1020" windowWidth="16620" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,20 @@
   </si>
   <si>
     <t>Не упустите шанс! Воспользуйтесь сезонными скидками и сделайте покупки по выгодным ценам. Акция действует до конца месяца — торопитесь!</t>
+  </si>
+  <si>
+    <t>Распродажа посуды и кухонных принадлежностей!</t>
+  </si>
+  <si>
+    <t>Скидки до 25% на посуду, кастрюли и кухонные гаджеты! Спешите обновить кухонную рутину выгодно и красиво.</t>
+  </si>
+  <si>
+    <t>С Новым годом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорогие друзья!
+Поздравляем вас с наступающим Новым годом! Пусть в этом году ваш дом будет наполнен уютом, теплом и радостью. Желаем крепкого здоровья, счастья и благополучия вам и вашим близким. Благодарим за доверие и надеемся, что наш магазин поможет сделать ваш дом еще уютнее и комфортнее!
+С Новым годом! Пусть всё задуманное сбудется! </t>
   </si>
 </sst>
 </file>
@@ -93,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -376,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +460,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46019</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
